--- a/media/output/result/bpic2015_3_f2_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
+++ b/media/output/result/bpic2015_3_f2_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
@@ -1578,10 +1578,10 @@
         <v>222</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.7387387387387387</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8497409326424871</v>
       </c>
     </row>
     <row r="41">
